--- a/analysis/scratch_analysis.xlsx
+++ b/analysis/scratch_analysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Residency\Research\FIDs Study\Github\afids_parkinsons\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD79F48E-7D23-441B-9832-C15B8F4A5C31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CCCC8-1CC7-44A2-90F8-F5B7DBF1562A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17475" yWindow="6652" windowWidth="21600" windowHeight="11423" xr2:uid="{DFC9260C-8B9F-4A7C-9EC9-60EBA5D547B8}"/>
+    <workbookView xWindow="17700" yWindow="4912" windowWidth="21600" windowHeight="11423" firstSheet="1" activeTab="4" xr2:uid="{DFC9260C-8B9F-4A7C-9EC9-60EBA5D547B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MNI - AFLE" sheetId="2" r:id="rId2"/>
     <sheet name="MNI - AFRE our GS" sheetId="4" r:id="rId3"/>
     <sheet name="MNI - AFRE Jon's GS" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Patient Space</t>
   </si>
@@ -85,6 +86,21 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Eud dist</t>
   </si>
 </sst>
 </file>
@@ -2768,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A5B6B8-73D8-408C-AC63-FFB5C5F6FBB3}">
   <dimension ref="C1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="D2:H28"/>
+    <sheetView topLeftCell="G40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z76" sqref="W72:Z76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9839,7 +9855,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13033,4 +13049,577 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99CA0A-6C47-4362-B0DB-0DD01251158A}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.94581465033218504</v>
+      </c>
+      <c r="C2">
+        <v>0.69369329556213299</v>
+      </c>
+      <c r="D2">
+        <v>0.68812270709812495</v>
+      </c>
+      <c r="E2">
+        <v>0.61366347447217595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.94376569097640295</v>
+      </c>
+      <c r="C3">
+        <v>0.75973389628749999</v>
+      </c>
+      <c r="D3">
+        <v>0.90787922207532601</v>
+      </c>
+      <c r="E3">
+        <v>0.71783382458949996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.97870207236316598</v>
+      </c>
+      <c r="C4">
+        <v>0.920972717796124</v>
+      </c>
+      <c r="D4">
+        <v>0.83173415744686896</v>
+      </c>
+      <c r="E4">
+        <v>0.71684572719184103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.90487352956031597</v>
+      </c>
+      <c r="C5">
+        <v>0.85471328919615897</v>
+      </c>
+      <c r="D5">
+        <v>0.76151271102598606</v>
+      </c>
+      <c r="E5">
+        <v>0.68896451379100798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.78314993501544805</v>
+      </c>
+      <c r="C6">
+        <v>0.53738705116529994</v>
+      </c>
+      <c r="D6">
+        <v>0.40209899412306499</v>
+      </c>
+      <c r="E6">
+        <v>0.30141166950759102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.83049001196000305</v>
+      </c>
+      <c r="C7">
+        <v>0.80785789614424697</v>
+      </c>
+      <c r="D7">
+        <v>0.556108997971278</v>
+      </c>
+      <c r="E7">
+        <v>0.73479411847731102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.77428467379504495</v>
+      </c>
+      <c r="C8">
+        <v>0.83446290939971901</v>
+      </c>
+      <c r="D8">
+        <v>0.58004103868655099</v>
+      </c>
+      <c r="E8">
+        <v>0.77201982684329196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.92967043648265002</v>
+      </c>
+      <c r="C9">
+        <v>0.87790141532794597</v>
+      </c>
+      <c r="D9">
+        <v>0.60298750208364005</v>
+      </c>
+      <c r="E9">
+        <v>0.48086086673016298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.92903437761294405</v>
+      </c>
+      <c r="C10">
+        <v>0.87608347098672701</v>
+      </c>
+      <c r="D10">
+        <v>0.58580689631829697</v>
+      </c>
+      <c r="E10">
+        <v>0.45317104424781302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.96192417447102896</v>
+      </c>
+      <c r="C11">
+        <v>0.78245229212437395</v>
+      </c>
+      <c r="D11">
+        <v>0.96276954143003202</v>
+      </c>
+      <c r="E11">
+        <v>0.76330967740247802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.809259155238501</v>
+      </c>
+      <c r="C12">
+        <v>0.84867465550871501</v>
+      </c>
+      <c r="D12">
+        <v>0.78674770954022599</v>
+      </c>
+      <c r="E12">
+        <v>0.73108084114728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.75255886742788802</v>
+      </c>
+      <c r="C13">
+        <v>0.85497821922649098</v>
+      </c>
+      <c r="D13">
+        <v>0.79179622493030899</v>
+      </c>
+      <c r="E13">
+        <v>0.74365161351475695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.73822151397767</v>
+      </c>
+      <c r="C14">
+        <v>0.82527911014131905</v>
+      </c>
+      <c r="D14">
+        <v>0.78452158501875402</v>
+      </c>
+      <c r="E14">
+        <v>0.70324559988948998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.95382389926065303</v>
+      </c>
+      <c r="C15">
+        <v>0.51069516998063602</v>
+      </c>
+      <c r="D15">
+        <v>0.81975699927533596</v>
+      </c>
+      <c r="E15">
+        <v>0.48630280224002898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.95771679033400303</v>
+      </c>
+      <c r="C16">
+        <v>0.64183251925554796</v>
+      </c>
+      <c r="D16">
+        <v>0.95659099049081697</v>
+      </c>
+      <c r="E16">
+        <v>0.95048203984961899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.96499670228872003</v>
+      </c>
+      <c r="C17">
+        <v>0.621207770914321</v>
+      </c>
+      <c r="D17">
+        <v>0.95419076759124399</v>
+      </c>
+      <c r="E17">
+        <v>0.94913414348520397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.92090905939415202</v>
+      </c>
+      <c r="C18">
+        <v>0.64627474805461804</v>
+      </c>
+      <c r="D18">
+        <v>0.90756877274380399</v>
+      </c>
+      <c r="E18">
+        <v>0.95393214697899398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.96307127527891601</v>
+      </c>
+      <c r="C19">
+        <v>0.80907982332405404</v>
+      </c>
+      <c r="D19">
+        <v>0.94053432245396196</v>
+      </c>
+      <c r="E19">
+        <v>0.96881900266670995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.98226807775130898</v>
+      </c>
+      <c r="C20">
+        <v>0.94960061284365005</v>
+      </c>
+      <c r="D20">
+        <v>0.92241114924610002</v>
+      </c>
+      <c r="E20">
+        <v>0.93425028195098503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.94688149108114505</v>
+      </c>
+      <c r="C21">
+        <v>0.88377940451811798</v>
+      </c>
+      <c r="D21">
+        <v>0.93058091875687998</v>
+      </c>
+      <c r="E21">
+        <v>0.87991234653580996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.88156662638581196</v>
+      </c>
+      <c r="C22">
+        <v>0.92053527097464205</v>
+      </c>
+      <c r="D22">
+        <v>0.90235814149430105</v>
+      </c>
+      <c r="E22">
+        <v>0.96033735612530902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.61946286871674505</v>
+      </c>
+      <c r="C23">
+        <v>0.88483773236998797</v>
+      </c>
+      <c r="D23">
+        <v>0.83143857300675905</v>
+      </c>
+      <c r="E23">
+        <v>0.91331865693616399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.52560234340946099</v>
+      </c>
+      <c r="C24">
+        <v>0.56034273108043597</v>
+      </c>
+      <c r="D24">
+        <v>0.67086862562918603</v>
+      </c>
+      <c r="E24">
+        <v>0.37693120992551399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.50869355123587001</v>
+      </c>
+      <c r="C25">
+        <v>0.78310642536603603</v>
+      </c>
+      <c r="D25">
+        <v>0.64166045674884997</v>
+      </c>
+      <c r="E25">
+        <v>0.47383216254944799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.58412350097630095</v>
+      </c>
+      <c r="C26">
+        <v>0.83233955713527297</v>
+      </c>
+      <c r="D26">
+        <v>0.70050745225441902</v>
+      </c>
+      <c r="E26">
+        <v>0.47098912062889697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.43048001728749302</v>
+      </c>
+      <c r="C27">
+        <v>0.75184638444677099</v>
+      </c>
+      <c r="D27">
+        <v>0.76686687540796505</v>
+      </c>
+      <c r="E27">
+        <v>0.485715552434628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.79081063199189605</v>
+      </c>
+      <c r="C28">
+        <v>0.86221132988020299</v>
+      </c>
+      <c r="D28">
+        <v>0.93640499092198604</v>
+      </c>
+      <c r="E28">
+        <v>0.85543751564919701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.76953366542290502</v>
+      </c>
+      <c r="C29">
+        <v>0.86273873555157299</v>
+      </c>
+      <c r="D29">
+        <v>0.916956551852535</v>
+      </c>
+      <c r="E29">
+        <v>0.84120482075327396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.95847594069646702</v>
+      </c>
+      <c r="C30">
+        <v>0.93416896219732404</v>
+      </c>
+      <c r="D30">
+        <v>0.95151791878157199</v>
+      </c>
+      <c r="E30">
+        <v>0.94741768299714402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.92160014418005598</v>
+      </c>
+      <c r="C31">
+        <v>0.92420935630150702</v>
+      </c>
+      <c r="D31">
+        <v>0.97831469156601203</v>
+      </c>
+      <c r="E31">
+        <v>0.93079522105406298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.84538397276360799</v>
+      </c>
+      <c r="C32">
+        <v>0.55337497580197104</v>
+      </c>
+      <c r="D32">
+        <v>0.92397309480876599</v>
+      </c>
+      <c r="E32">
+        <v>0.51712918587866497</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>0.86629464767497899</v>
+      </c>
+      <c r="C33">
+        <v>0.45360216924254398</v>
+      </c>
+      <c r="D33">
+        <v>0.89247547502459701</v>
+      </c>
+      <c r="E33">
+        <v>0.45323856845348298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis/scratch_analysis.xlsx
+++ b/analysis/scratch_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Residency\Research\FIDs Study\Github\afids_parkinsons\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\GitHub\afids_parkinsons\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CCCC8-1CC7-44A2-90F8-F5B7DBF1562A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3509B4-7B89-4980-A20A-26A7D1C99238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="4912" windowWidth="21600" windowHeight="11423" firstSheet="1" activeTab="4" xr2:uid="{DFC9260C-8B9F-4A7C-9EC9-60EBA5D547B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{DFC9260C-8B9F-4A7C-9EC9-60EBA5D547B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="MNI - AFRE our GS" sheetId="4" r:id="rId3"/>
     <sheet name="MNI - AFRE Jon's GS" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="FIDs placed in MNI" sheetId="6" r:id="rId6"/>
+    <sheet name="MNI - AFRE our GS (fmriprep)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Patient Space</t>
   </si>
@@ -101,6 +105,15 @@
   </si>
   <si>
     <t>Eud dist</t>
+  </si>
+  <si>
+    <t>our paper</t>
+  </si>
+  <si>
+    <t>jon's paper</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -2788,9 +2801,9 @@
       <selection activeCell="Z76" sqref="W72:Z76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:35" x14ac:dyDescent="0.35">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +2841,7 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>1</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>-255.91177980418169</v>
       </c>
     </row>
-    <row r="3" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>2</v>
       </c>
@@ -3022,7 +3035,7 @@
         <v>-286.96074900432455</v>
       </c>
     </row>
-    <row r="4" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>3</v>
       </c>
@@ -3119,7 +3132,7 @@
         <v>-230.33724191139922</v>
       </c>
     </row>
-    <row r="5" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>4</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>-385.44508275844845</v>
       </c>
     </row>
-    <row r="6" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>5</v>
       </c>
@@ -3313,7 +3326,7 @@
         <v>-156.19071904436254</v>
       </c>
     </row>
-    <row r="7" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>6</v>
       </c>
@@ -3410,7 +3423,7 @@
         <v>-137.65822370890879</v>
       </c>
     </row>
-    <row r="8" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>7</v>
       </c>
@@ -3507,7 +3520,7 @@
         <v>-124.52703927047932</v>
       </c>
     </row>
-    <row r="9" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>8</v>
       </c>
@@ -3604,7 +3617,7 @@
         <v>-119.31388616942408</v>
       </c>
     </row>
-    <row r="10" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>9</v>
       </c>
@@ -3701,7 +3714,7 @@
         <v>-112.87645648896196</v>
       </c>
     </row>
-    <row r="11" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>10</v>
       </c>
@@ -3798,7 +3811,7 @@
         <v>-102.45738182154506</v>
       </c>
     </row>
-    <row r="12" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>11</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>-459.78838412271142</v>
       </c>
     </row>
-    <row r="13" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>12</v>
       </c>
@@ -3992,7 +4005,7 @@
         <v>-329.89653236474851</v>
       </c>
     </row>
-    <row r="14" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>13</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>-337.73133877363756</v>
       </c>
     </row>
-    <row r="15" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>14</v>
       </c>
@@ -4186,7 +4199,7 @@
         <v>-87.870950835384861</v>
       </c>
     </row>
-    <row r="16" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>15</v>
       </c>
@@ -4283,7 +4296,7 @@
         <v>-137.14833467859896</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>16</v>
       </c>
@@ -4380,7 +4393,7 @@
         <v>-136.68279225431144</v>
       </c>
     </row>
-    <row r="18" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>17</v>
       </c>
@@ -4477,7 +4490,7 @@
         <v>-138.5532242572869</v>
       </c>
     </row>
-    <row r="19" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>18</v>
       </c>
@@ -4574,7 +4587,7 @@
         <v>-190.92838946237626</v>
       </c>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>19</v>
       </c>
@@ -4671,7 +4684,7 @@
         <v>-188.74498852984135</v>
       </c>
     </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>20</v>
       </c>
@@ -4768,7 +4781,7 @@
         <v>-115.08829050250483</v>
       </c>
     </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>21</v>
       </c>
@@ -4865,7 +4878,7 @@
         <v>-181.2848812052523</v>
       </c>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>22</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>-131.13772306075595</v>
       </c>
     </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>23</v>
       </c>
@@ -5059,7 +5072,7 @@
         <v>-162.30956562560516</v>
       </c>
     </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>24</v>
       </c>
@@ -5156,7 +5169,7 @@
         <v>-204.63507223567905</v>
       </c>
     </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>25</v>
       </c>
@@ -5253,7 +5266,7 @@
         <v>-111.08522399970124</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>26</v>
       </c>
@@ -5350,7 +5363,7 @@
         <v>-107.30033245275816</v>
       </c>
     </row>
-    <row r="28" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>27</v>
       </c>
@@ -5447,7 +5460,7 @@
         <v>-120.30578453489322</v>
       </c>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>28</v>
       </c>
@@ -5544,7 +5557,7 @@
         <v>-112.07899902579693</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>29</v>
       </c>
@@ -5641,7 +5654,7 @@
         <v>-188.18949049652269</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>30</v>
       </c>
@@ -5738,7 +5751,7 @@
         <v>-169.69869947360161</v>
       </c>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>31</v>
       </c>
@@ -5835,7 +5848,7 @@
         <v>-56.626989691326131</v>
       </c>
     </row>
-    <row r="33" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>32</v>
       </c>
@@ -5932,13 +5945,13 @@
         <v>-72.636973392995145</v>
       </c>
     </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.35">
       <c r="AI34">
         <f>AVERAGE(AI2:AI33)</f>
         <v>-176.60629752994771</v>
       </c>
     </row>
-    <row r="35" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
@@ -5961,7 +5974,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P36">
         <v>2.5798986069286198</v>
       </c>
@@ -6025,7 +6038,7 @@
         <v>-257.79923083232745</v>
       </c>
     </row>
-    <row r="37" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P37">
         <v>2.7946383544470499</v>
       </c>
@@ -6089,7 +6102,7 @@
         <v>-376.50512407408524</v>
       </c>
     </row>
-    <row r="38" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P38">
         <v>3.5091587780911802</v>
       </c>
@@ -6153,7 +6166,7 @@
         <v>-172.97232114442343</v>
       </c>
     </row>
-    <row r="39" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P39">
         <v>5.9782579950630996</v>
       </c>
@@ -6217,7 +6230,7 @@
         <v>-454.49753074666768</v>
       </c>
     </row>
-    <row r="40" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P40">
         <v>3.33091382229988</v>
       </c>
@@ -6281,7 +6294,7 @@
         <v>-149.98409104451474</v>
       </c>
     </row>
-    <row r="41" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P41">
         <v>4.1456374715482696</v>
       </c>
@@ -6345,7 +6358,7 @@
         <v>-124.93537006411216</v>
       </c>
     </row>
-    <row r="42" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P42">
         <v>4.3559396880273296</v>
       </c>
@@ -6409,7 +6422,7 @@
         <v>-121.72304655369848</v>
       </c>
     </row>
-    <row r="43" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P43">
         <v>4.7114597331937196</v>
       </c>
@@ -6473,7 +6486,7 @@
         <v>-107.00843034426209</v>
       </c>
     </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P44">
         <v>4.95136820914386</v>
       </c>
@@ -6537,7 +6550,7 @@
         <v>-112.02843401310477</v>
       </c>
     </row>
-    <row r="45" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P45">
         <v>3.5565871462017502</v>
       </c>
@@ -6601,7 +6614,7 @@
         <v>-108.22045785740542</v>
       </c>
     </row>
-    <row r="46" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P46">
         <v>3.43911841302518</v>
       </c>
@@ -6665,7 +6678,7 @@
         <v>-378.26354241000956</v>
       </c>
     </row>
-    <row r="47" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P47">
         <v>3.45099514776066</v>
       </c>
@@ -6729,7 +6742,7 @@
         <v>-328.82114422725664</v>
       </c>
     </row>
-    <row r="48" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:35" x14ac:dyDescent="0.35">
       <c r="P48">
         <v>3.4896429206835999</v>
       </c>
@@ -6793,7 +6806,7 @@
         <v>-327.89363425174952</v>
       </c>
     </row>
-    <row r="49" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P49">
         <v>3.6214954566871</v>
       </c>
@@ -6857,7 +6870,7 @@
         <v>-106.3121975851971</v>
       </c>
     </row>
-    <row r="50" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P50">
         <v>8.2799143646813</v>
       </c>
@@ -6921,7 +6934,7 @@
         <v>-139.51081966103854</v>
       </c>
     </row>
-    <row r="51" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="51" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P51">
         <v>7.6915835837115702</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>-129.54861892861243</v>
       </c>
     </row>
-    <row r="52" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P52">
         <v>5.4191545694402796</v>
       </c>
@@ -7049,7 +7062,7 @@
         <v>-139.50800226997981</v>
       </c>
     </row>
-    <row r="53" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P53">
         <v>4.7105582921376303</v>
       </c>
@@ -7113,7 +7126,7 @@
         <v>-177.76882652957539</v>
       </c>
     </row>
-    <row r="54" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P54">
         <v>3.4771711918091102</v>
       </c>
@@ -7177,7 +7190,7 @@
         <v>-178.36654970685532</v>
       </c>
     </row>
-    <row r="55" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P55">
         <v>3.3696719787451102</v>
       </c>
@@ -7241,7 +7254,7 @@
         <v>-115.73695115491371</v>
       </c>
     </row>
-    <row r="56" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P56">
         <v>5.3753393546404098</v>
       </c>
@@ -7305,7 +7318,7 @@
         <v>-187.94694504271376</v>
       </c>
     </row>
-    <row r="57" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P57">
         <v>5.4205926544317702</v>
       </c>
@@ -7369,7 +7382,7 @@
         <v>-158.15258925029931</v>
       </c>
     </row>
-    <row r="58" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="58" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P58">
         <v>5.6493636192865297</v>
       </c>
@@ -7433,7 +7446,7 @@
         <v>-157.5664917683863</v>
       </c>
     </row>
-    <row r="59" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="59" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P59">
         <v>6.0205998636168898</v>
       </c>
@@ -7497,7 +7510,7 @@
         <v>-202.33064788463761</v>
       </c>
     </row>
-    <row r="60" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P60">
         <v>6.6170269853246504</v>
       </c>
@@ -7561,7 +7574,7 @@
         <v>-104.5790987688404</v>
       </c>
     </row>
-    <row r="61" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P61">
         <v>7.1473652549937103</v>
       </c>
@@ -7625,7 +7638,7 @@
         <v>-104.92756167309074</v>
       </c>
     </row>
-    <row r="62" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P62">
         <v>4.4026493263159097</v>
       </c>
@@ -7689,7 +7702,7 @@
         <v>-120.8557046784255</v>
       </c>
     </row>
-    <row r="63" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P63">
         <v>4.7518137691381099</v>
       </c>
@@ -7753,7 +7766,7 @@
         <v>-131.92085362124612</v>
       </c>
     </row>
-    <row r="64" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P64">
         <v>7.6393936733162997</v>
       </c>
@@ -7817,7 +7830,7 @@
         <v>-331.43390036717437</v>
       </c>
     </row>
-    <row r="65" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="65" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P65">
         <v>7.0705201953659103</v>
       </c>
@@ -7881,7 +7894,7 @@
         <v>-291.28893603695929</v>
       </c>
     </row>
-    <row r="66" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="66" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P66">
         <v>4.7923764689066504</v>
       </c>
@@ -7945,7 +7958,7 @@
         <v>-62.644009253065157</v>
       </c>
     </row>
-    <row r="67" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="67" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P67">
         <v>4.8885676654599299</v>
       </c>
@@ -8009,13 +8022,13 @@
         <v>-73.696671847307741</v>
       </c>
     </row>
-    <row r="68" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="68" spans="16:35" x14ac:dyDescent="0.35">
       <c r="AI68">
         <f>AVERAGE(AI36:AI67)</f>
         <v>-185.46086667474802</v>
       </c>
     </row>
-    <row r="69" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="69" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P69" s="2" t="s">
         <v>8</v>
       </c>
@@ -8031,7 +8044,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="70" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P70">
         <f>P36-P2</f>
         <v>1.8182166564939983E-2</v>
@@ -8087,7 +8100,7 @@
         <v>100.46556318189961</v>
       </c>
     </row>
-    <row r="71" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="71" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P71">
         <f t="shared" ref="P71:T71" si="27">P37-P3</f>
         <v>0.18839435764200996</v>
@@ -8143,7 +8156,7 @@
         <v>121.97380595080668</v>
       </c>
     </row>
-    <row r="72" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="72" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P72">
         <f t="shared" ref="P72:T72" si="35">P38-P4</f>
         <v>-0.6078754467355596</v>
@@ -8199,7 +8212,7 @@
         <v>82.978053812939734</v>
       </c>
     </row>
-    <row r="73" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="73" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P73">
         <f t="shared" ref="P73:T73" si="36">P39-P5</f>
         <v>0.67746989560462989</v>
@@ -8255,7 +8268,7 @@
         <v>114.34465455753757</v>
       </c>
     </row>
-    <row r="74" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="74" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P74">
         <f t="shared" ref="P74:T74" si="37">P40-P6</f>
         <v>-8.5240647798490166E-2</v>
@@ -8311,7 +8324,7 @@
         <v>97.768763818750173</v>
       </c>
     </row>
-    <row r="75" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="75" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P75">
         <f t="shared" ref="P75:T75" si="38">P41-P7</f>
         <v>-0.26005737017535058</v>
@@ -8367,7 +8380,7 @@
         <v>94.611436942003962</v>
       </c>
     </row>
-    <row r="76" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="76" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P76">
         <f t="shared" ref="P76:T76" si="39">P42-P8</f>
         <v>-0.11334425612597077</v>
@@ -8423,7 +8436,7 @@
         <v>98.50255678580622</v>
       </c>
     </row>
-    <row r="77" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="77" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P77">
         <f t="shared" ref="P77:T77" si="40">P43-P9</f>
         <v>-0.24218317520637012</v>
@@ -8479,7 +8492,7 @@
         <v>94.436007191211871</v>
       </c>
     </row>
-    <row r="78" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="78" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P78">
         <f t="shared" ref="P78:T78" si="41">P44-P10</f>
         <v>6.2905813915530295E-2</v>
@@ -8535,7 +8548,7 @@
         <v>99.212176523022762</v>
       </c>
     </row>
-    <row r="79" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="79" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P79">
         <f t="shared" ref="P79:T79" si="42">P45-P11</f>
         <v>-3.1580431812919585E-2</v>
@@ -8591,7 +8604,7 @@
         <v>102.58434039128269</v>
       </c>
     </row>
-    <row r="80" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="80" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P80">
         <f t="shared" ref="P80:T80" si="43">P46-P12</f>
         <v>-0.58993302494137989</v>
@@ -8647,7 +8660,7 @@
         <v>85.439165459513248</v>
       </c>
     </row>
-    <row r="81" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="81" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P81">
         <f t="shared" ref="P81:T81" si="44">P47-P13</f>
         <v>1.0891802200430067E-2</v>
@@ -8703,7 +8716,7 @@
         <v>99.768972335975405</v>
       </c>
     </row>
-    <row r="82" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="82" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P82">
         <f t="shared" ref="P82:T82" si="45">P48-P14</f>
         <v>-0.14141918881158988</v>
@@ -8759,7 +8772,7 @@
         <v>97.617157608402266</v>
       </c>
     </row>
-    <row r="83" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="83" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P83">
         <f t="shared" ref="P83:T83" si="46">P49-P15</f>
         <v>0.35218035498207012</v>
@@ -8815,7 +8828,7 @@
         <v>109.80330286725635</v>
       </c>
     </row>
-    <row r="84" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="84" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P84">
         <f t="shared" ref="P84:T84" si="47">P50-P16</f>
         <v>1.2367738295383202</v>
@@ -8871,7 +8884,7 @@
         <v>102.08413469306979</v>
       </c>
     </row>
-    <row r="85" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="85" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P85">
         <f t="shared" ref="P85:T85" si="48">P51-P17</f>
         <v>1.0605950630972698</v>
@@ -8927,7 +8940,7 @@
         <v>98.831346219647202</v>
       </c>
     </row>
-    <row r="86" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="86" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P86">
         <f t="shared" ref="P86:T86" si="49">P52-P18</f>
         <v>-0.43766393699226036</v>
@@ -8983,7 +8996,7 @@
         <v>99.752389019638983</v>
       </c>
     </row>
-    <row r="87" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="87" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P87">
         <f t="shared" ref="P87:T87" si="50">P53-P19</f>
         <v>-0.40587759576385007</v>
@@ -9039,7 +9052,7 @@
         <v>95.08270688044334</v>
       </c>
     </row>
-    <row r="88" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="88" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P88">
         <f t="shared" ref="P88:T88" si="51">P54-P20</f>
         <v>-0.23515011378456974</v>
@@ -9095,7 +9108,7 @@
         <v>96.289061187305307</v>
       </c>
     </row>
-    <row r="89" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="89" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P89">
         <f t="shared" ref="P89:T89" si="52">P55-P21</f>
         <v>2.9843497474599801E-3</v>
@@ -9151,7 +9164,7 @@
         <v>100.33046325387608</v>
       </c>
     </row>
-    <row r="90" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="90" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P90">
         <f t="shared" ref="P90:T90" si="53">P56-P22</f>
         <v>1.3192190768739565E-2</v>
@@ -9207,7 +9220,7 @@
         <v>102.27941493559992</v>
       </c>
     </row>
-    <row r="91" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="91" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P91">
         <f t="shared" ref="P91:T91" si="54">P57-P23</f>
         <v>0.38441198806884991</v>
@@ -9263,7 +9276,7 @@
         <v>111.38620646818667</v>
       </c>
     </row>
-    <row r="92" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="92" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P92">
         <f t="shared" ref="P92:T92" si="55">P58-P24</f>
         <v>-0.10781037553782991</v>
@@ -9319,7 +9332,7 @@
         <v>98.030905074514209</v>
       </c>
     </row>
-    <row r="93" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="93" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P93">
         <f t="shared" ref="P93:T93" si="56">P59-P25</f>
         <v>-0.11124300998586989</v>
@@ -9375,7 +9388,7 @@
         <v>99.156965482538055</v>
       </c>
     </row>
-    <row r="94" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="94" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P94">
         <f t="shared" ref="P94:T94" si="57">P60-P26</f>
         <v>-0.19895496971909932</v>
@@ -9431,7 +9444,7 @@
         <v>96.404338089871118</v>
       </c>
     </row>
-    <row r="95" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="95" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P95">
         <f t="shared" ref="P95:T95" si="58">P61-P27</f>
         <v>-7.68820724902195E-2</v>
@@ -9487,7 +9500,7 @@
         <v>98.817884174958692</v>
       </c>
     </row>
-    <row r="96" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="96" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P96">
         <f t="shared" ref="P96:T96" si="59">P62-P28</f>
         <v>-5.8730644596240111E-2</v>
@@ -9543,7 +9556,7 @@
         <v>100.56949732333301</v>
       </c>
     </row>
-    <row r="97" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="97" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P97">
         <f t="shared" ref="P97:T97" si="60">P63-P29</f>
         <v>0.3640706072228701</v>
@@ -9599,7 +9612,7 @@
         <v>109.20884961234265</v>
       </c>
     </row>
-    <row r="98" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="98" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P98">
         <f t="shared" ref="P98:T98" si="61">P64-P30</f>
         <v>2.1001861112553897</v>
@@ -9655,7 +9668,7 @@
         <v>149.79129846122902</v>
       </c>
     </row>
-    <row r="99" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="99" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P99">
         <f t="shared" ref="P99:T99" si="62">P65-P31</f>
         <v>0.56225646582027</v>
@@ -9711,7 +9724,7 @@
         <v>142.86124542081052</v>
       </c>
     </row>
-    <row r="100" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="100" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P100">
         <f t="shared" ref="P100:T100" si="63">P66-P32</f>
         <v>0.10240737825245017</v>
@@ -9767,7 +9780,7 @@
         <v>103.65204719349751</v>
       </c>
     </row>
-    <row r="101" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="101" spans="16:35" x14ac:dyDescent="0.35">
       <c r="P101">
         <f t="shared" ref="P101:T101" si="64">P67-P33</f>
         <v>0.20690680620965995</v>
@@ -9823,7 +9836,7 @@
         <v>100.80542859498526</v>
       </c>
     </row>
-    <row r="102" spans="16:35" x14ac:dyDescent="0.45">
+    <row r="102" spans="16:35" x14ac:dyDescent="0.35">
       <c r="W102">
         <f>AVERAGE(W70:W101)</f>
         <v>0.14943645561215468</v>
@@ -9854,13 +9867,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9281EBE6-7CDF-4051-9E9C-D3C794F61737}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -9881,7 +9894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9911,7 +9924,7 @@
         <v>2.9617859064000278</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9941,7 +9954,7 @@
         <v>2.8203055010678657</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9971,7 +9984,7 @@
         <v>2.5190252372422042</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10001,7 +10014,7 @@
         <v>2.3725374181068917</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10031,7 +10044,7 @@
         <v>2.2068914959003481</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10061,7 +10074,7 @@
         <v>2.134786763944394</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10091,7 +10104,7 @@
         <v>2.1111766635329943</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10121,7 +10134,7 @@
         <v>2.1093066780988297</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10151,7 +10164,7 @@
         <v>2.0632810042257379</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10181,7 +10194,7 @@
         <v>1.9984518161127696</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10211,7 +10224,7 @@
         <v>1.9880154318029142</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10241,7 +10254,7 @@
         <v>1.9831711106847318</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10271,7 +10284,7 @@
         <v>1.9773391060119561</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10301,7 +10314,7 @@
         <v>1.9400677367486121</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10331,7 +10344,7 @@
         <v>1.8755394910597558</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10361,7 +10374,7 @@
         <v>1.7733458867676659</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10391,7 +10404,7 @@
         <v>1.7708381777252939</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10421,7 +10434,7 @@
         <v>1.6668774730439579</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10451,7 +10464,7 @@
         <v>1.6436045772750578</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10481,7 +10494,7 @@
         <v>1.5803126358392561</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10511,7 +10524,7 @@
         <v>1.5754724024028741</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10541,7 +10554,7 @@
         <v>1.557676148607684</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10571,7 +10584,7 @@
         <v>1.3983641232323381</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10601,7 +10614,7 @@
         <v>1.3803744342313902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10631,7 +10644,7 @@
         <v>1.2150320904060781</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10661,7 +10674,7 @@
         <v>1.137756384282621</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10691,7 +10704,7 @@
         <v>1.0393425414156756</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10721,7 +10734,7 @@
         <v>0.9040606945982409</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10751,7 +10764,7 @@
         <v>0.90090768439898616</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10781,7 +10794,7 @@
         <v>0.78777779887812216</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10811,7 +10824,7 @@
         <v>0.74925740367833227</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10841,7 +10854,7 @@
         <v>0.63494259792061469</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -10886,13 +10899,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3F77ED-FE98-46EE-8685-A9FD07F594EA}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10916,7 +10929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10949,7 +10962,7 @@
         <v>7.5533890159155748</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10982,7 +10995,7 @@
         <v>7.3118881284983299</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11015,7 +11028,7 @@
         <v>5.9814932296118606</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11048,7 +11061,7 @@
         <v>5.9048309281783613</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11081,7 +11094,7 @@
         <v>5.6453369755002258</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11114,7 +11127,7 @@
         <v>5.6296129662053556</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11147,7 +11160,7 @@
         <v>5.3975000182051076</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11180,7 +11193,7 @@
         <v>4.9905873316585811</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11213,7 +11226,7 @@
         <v>4.9602796891561685</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11246,7 +11259,7 @@
         <v>4.8183829683610835</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11279,7 +11292,7 @@
         <v>4.6823882322648105</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11312,7 +11325,7 @@
         <v>4.5265370821127178</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11345,7 +11358,7 @@
         <v>4.2426887257136681</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11378,7 +11391,7 @@
         <v>4.1288940714471121</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11411,7 +11424,7 @@
         <v>4.1098725186676539</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11444,7 +11457,7 @@
         <v>4.0924307789288132</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11477,7 +11490,7 @@
         <v>4.0115642862898619</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11510,7 +11523,7 @@
         <v>3.7798395267590856</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11543,7 +11556,7 @@
         <v>3.7363886795449757</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11576,7 +11589,7 @@
         <v>3.7179876389039799</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11609,7 +11622,7 @@
         <v>3.570758354280168</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11642,7 +11655,7 @@
         <v>3.526108133066356</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11675,7 +11688,7 @@
         <v>3.4677720959260823</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11708,7 +11721,7 @@
         <v>3.4647573603212138</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11741,7 +11754,7 @@
         <v>3.396262850984054</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11774,7 +11787,7 @@
         <v>3.335835264135862</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11807,7 +11820,7 @@
         <v>3.2716331499066036</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11840,7 +11853,7 @@
         <v>3.2327457603919698</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11873,7 +11886,7 @@
         <v>3.0036578860140724</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11906,7 +11919,7 @@
         <v>2.8436054146950154</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11939,7 +11952,7 @@
         <v>2.7285420656760082</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11972,7 +11985,7 @@
         <v>2.4657187771398918</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -12025,9 +12038,9 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12048,7 +12061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12078,7 +12091,7 @@
         <v>6.0519088169472033</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12108,7 +12121,7 @@
         <v>5.9560658323551525</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12138,7 +12151,7 @@
         <v>5.8239989939821299</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12168,7 +12181,7 @@
         <v>5.5019693274836596</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12198,7 +12211,7 @@
         <v>5.3555869315201994</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12228,7 +12241,7 @@
         <v>4.9519076813803578</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12258,7 +12271,7 @@
         <v>4.9431918376110691</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12288,7 +12301,7 @@
         <v>4.8970483593016683</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12318,7 +12331,7 @@
         <v>4.8113417948837895</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12348,7 +12361,7 @@
         <v>4.43047067742304</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12378,7 +12391,7 @@
         <v>4.3505313541590507</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12408,7 +12421,7 @@
         <v>4.3302922225404021</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12438,7 +12451,7 @@
         <v>4.310326797004512</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12468,7 +12481,7 @@
         <v>4.2855444956425135</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12498,7 +12511,7 @@
         <v>4.2463742069490236</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12528,7 +12541,7 @@
         <v>4.2232145963714336</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12558,7 +12571,7 @@
         <v>4.1500403471992602</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12588,7 +12601,7 @@
         <v>4.1489897206545479</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12615,7 +12628,7 @@
         <v>4.1483538539022407</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12645,7 +12658,7 @@
         <v>3.8713416389724018</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12675,7 +12688,7 @@
         <v>3.7461655645278618</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12705,7 +12718,7 @@
         <v>3.6643008167894657</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12735,7 +12748,7 @@
         <v>3.628227690038222</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12765,7 +12778,7 @@
         <v>3.6158413230314723</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12795,7 +12808,7 @@
         <v>3.4379669899307777</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12825,7 +12838,7 @@
         <v>3.435459584642806</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12855,7 +12868,7 @@
         <v>3.4142498007895186</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12885,7 +12898,7 @@
         <v>3.4006819329661959</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12915,7 +12928,7 @@
         <v>3.2844118035442507</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12945,7 +12958,7 @@
         <v>2.9433104430314883</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12975,7 +12988,7 @@
         <v>2.8335440487180921</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13005,7 +13018,7 @@
         <v>2.4547521415647218</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -13055,13 +13068,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99CA0A-6C47-4362-B0DB-0DD01251158A}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -13078,7 +13091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13095,7 +13108,7 @@
         <v>0.61366347447217595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13112,7 +13125,7 @@
         <v>0.71783382458949996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13129,7 +13142,7 @@
         <v>0.71684572719184103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13146,7 +13159,7 @@
         <v>0.68896451379100798</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13163,7 +13176,7 @@
         <v>0.30141166950759102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13180,7 +13193,7 @@
         <v>0.73479411847731102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13197,7 +13210,7 @@
         <v>0.77201982684329196</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13214,7 +13227,7 @@
         <v>0.48086086673016298</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13231,7 +13244,7 @@
         <v>0.45317104424781302</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13248,7 +13261,7 @@
         <v>0.76330967740247802</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13265,7 +13278,7 @@
         <v>0.73108084114728</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13282,7 +13295,7 @@
         <v>0.74365161351475695</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13299,7 +13312,7 @@
         <v>0.70324559988948998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13316,7 +13329,7 @@
         <v>0.48630280224002898</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13333,7 +13346,7 @@
         <v>0.95048203984961899</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13350,7 +13363,7 @@
         <v>0.94913414348520397</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13367,7 +13380,7 @@
         <v>0.95393214697899398</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13384,7 +13397,7 @@
         <v>0.96881900266670995</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13401,7 +13414,7 @@
         <v>0.93425028195098503</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13418,7 +13431,7 @@
         <v>0.87991234653580996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13435,7 +13448,7 @@
         <v>0.96033735612530902</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13452,7 +13465,7 @@
         <v>0.91331865693616399</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13469,7 +13482,7 @@
         <v>0.37693120992551399</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13486,7 +13499,7 @@
         <v>0.47383216254944799</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13503,7 +13516,7 @@
         <v>0.47098912062889697</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13520,7 +13533,7 @@
         <v>0.485715552434628</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13537,7 +13550,7 @@
         <v>0.85543751564919701</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13554,7 +13567,7 @@
         <v>0.84120482075327396</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13571,7 +13584,7 @@
         <v>0.94741768299714402</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13588,7 +13601,7 @@
         <v>0.93079522105406298</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13605,7 +13618,7 @@
         <v>0.51712918587866497</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.86629464767497899</v>
       </c>
@@ -13622,4 +13635,2228 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B326891C-FA8D-44AD-A0A7-2AE956B09F80}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.24818535</v>
+      </c>
+      <c r="C3">
+        <v>2.4612050000000001</v>
+      </c>
+      <c r="D3">
+        <v>-4.9199650000000004</v>
+      </c>
+      <c r="F3">
+        <v>-0.20486140769230801</v>
+      </c>
+      <c r="G3">
+        <v>2.7228807692307702</v>
+      </c>
+      <c r="H3">
+        <v>-4.8810528205128199</v>
+      </c>
+      <c r="J3">
+        <f>F3-B3</f>
+        <v>4.3323942307691987E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:L18" si="0">G3-C3</f>
+        <v>0.26167576923077007</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>3.8912179487180509E-2</v>
+      </c>
+      <c r="N3">
+        <f>SQRT(J3^2+K3^2+L3^2)</f>
+        <v>0.26807709691810305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.21252560000000001</v>
+      </c>
+      <c r="C4">
+        <v>-26.068774999999999</v>
+      </c>
+      <c r="D4">
+        <v>-3.0346850000000001</v>
+      </c>
+      <c r="F4">
+        <v>-7.2602694871794901E-3</v>
+      </c>
+      <c r="G4">
+        <v>-25.045053846153799</v>
+      </c>
+      <c r="H4">
+        <v>-2.2106823076923101</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:L34" si="1">F4-B4</f>
+        <v>0.20526533051282053</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.0237211538461999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.82400269230768997</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N34" si="2">SQRT(J4^2+K4^2+L4^2)</f>
+        <v>1.3300824386755334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.1127071</v>
+      </c>
+      <c r="C5">
+        <v>-37.190175000000004</v>
+      </c>
+      <c r="D5">
+        <v>-10.12571</v>
+      </c>
+      <c r="F5">
+        <v>2.5998141025640999E-2</v>
+      </c>
+      <c r="G5">
+        <v>-37.691917948718</v>
+      </c>
+      <c r="H5">
+        <v>-11.0111497435897</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.138705241025641</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-0.50174294871799674</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-0.8854397435896999</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.027126413838338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.6163899999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>-23.776225</v>
+      </c>
+      <c r="D6">
+        <v>-22.098749999999999</v>
+      </c>
+      <c r="F6">
+        <v>-8.9219851282051302E-2</v>
+      </c>
+      <c r="G6">
+        <v>-23.1885743589744</v>
+      </c>
+      <c r="H6">
+        <v>-21.528835897435901</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-0.12538375128205131</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.58765064102560061</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.56991410256409836</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.82816450375803974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-6.7509E-2</v>
+      </c>
+      <c r="C7">
+        <v>-13.9114</v>
+      </c>
+      <c r="D7">
+        <v>-10.913819999999999</v>
+      </c>
+      <c r="F7">
+        <v>-5.6492510000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>-13.7676564102564</v>
+      </c>
+      <c r="H7">
+        <v>-10.950028974359</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.1016489999999997E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.14374358974360035</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-3.6208974359000834E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.1486427679654391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>13.1021</v>
+      </c>
+      <c r="C8">
+        <v>-26.423200000000001</v>
+      </c>
+      <c r="D8">
+        <v>-10.0249275</v>
+      </c>
+      <c r="F8">
+        <v>13.311302564102601</v>
+      </c>
+      <c r="G8">
+        <v>-25.951058974359</v>
+      </c>
+      <c r="H8">
+        <v>-9.7488543589743593</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.20920256410260052</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.47214102564100102</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.27607314102564118</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.58557599004416383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-13.406224999999999</v>
+      </c>
+      <c r="C9">
+        <v>-26.773025000000001</v>
+      </c>
+      <c r="D9">
+        <v>-10.12382</v>
+      </c>
+      <c r="F9">
+        <v>-13.607458974359</v>
+      </c>
+      <c r="G9">
+        <v>-26.4451</v>
+      </c>
+      <c r="H9">
+        <v>-9.7076082051281993</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-0.20123397435900081</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.32792500000000047</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.41621179487180093</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.56679994376475151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10.941974999999999</v>
+      </c>
+      <c r="C10">
+        <v>-31.059374999999999</v>
+      </c>
+      <c r="D10">
+        <v>-21.324300000000001</v>
+      </c>
+      <c r="F10">
+        <v>10.8321820512821</v>
+      </c>
+      <c r="G10">
+        <v>-30.810407692307699</v>
+      </c>
+      <c r="H10">
+        <v>-21.594935897435899</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-0.10979294871789946</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.24896730769230047</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>-0.27063589743589844</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.38377467460563114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-10.868774999999999</v>
+      </c>
+      <c r="C11">
+        <v>-31.500575000000001</v>
+      </c>
+      <c r="D11">
+        <v>-21.663599999999999</v>
+      </c>
+      <c r="F11">
+        <v>-10.982410256410301</v>
+      </c>
+      <c r="G11">
+        <v>-30.877802564102598</v>
+      </c>
+      <c r="H11">
+        <v>-21.437202564102599</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-0.11363525641030137</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.62277243589740294</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.22639743589740036</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.67232007064636801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.17822157499999999</v>
+      </c>
+      <c r="C12">
+        <v>-53.086925000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.6650175</v>
+      </c>
+      <c r="F12">
+        <v>1.00564897435897E-2</v>
+      </c>
+      <c r="G12">
+        <v>-52.509461538461501</v>
+      </c>
+      <c r="H12">
+        <v>2.1484243589743599</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.18827806474358968</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.5774634615384997</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.48340685897435987</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.7762698437908524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-2.9561540000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>-8.6463374999999996</v>
+      </c>
+      <c r="D13">
+        <v>-15.20335</v>
+      </c>
+      <c r="F13">
+        <v>-7.4341757410256407E-2</v>
+      </c>
+      <c r="G13">
+        <v>-8.3603005128205101</v>
+      </c>
+      <c r="H13">
+        <v>-15.935482051282101</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-4.4780217410256409E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.28603698717948944</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-0.73213205128210035</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.78729903240164423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.1837325000000001</v>
+      </c>
+      <c r="C14">
+        <v>-8.9870099999999997</v>
+      </c>
+      <c r="D14">
+        <v>-15.064975</v>
+      </c>
+      <c r="F14">
+        <v>2.0276125641025602</v>
+      </c>
+      <c r="G14">
+        <v>-8.1545315384615407</v>
+      </c>
+      <c r="H14">
+        <v>-15.0245538461538</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-0.15611993589743989</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.83247846153845906</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>4.0421153846200042E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.8479550064645639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-2.6752850000000001</v>
+      </c>
+      <c r="C15">
+        <v>-9.1927450000000004</v>
+      </c>
+      <c r="D15">
+        <v>-15.0746</v>
+      </c>
+      <c r="F15">
+        <v>-2.1934248717948699</v>
+      </c>
+      <c r="G15">
+        <v>-8.2159328205128208</v>
+      </c>
+      <c r="H15">
+        <v>-15.0426743589744</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.48186012820513024</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.97681217948717958</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3.1925641025599916E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>1.0896652989350692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.26164205000000001</v>
+      </c>
+      <c r="C16">
+        <v>-31.743324999999999</v>
+      </c>
+      <c r="D16">
+        <v>-6.0449042500000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>9.4074442105263195E-3</v>
+      </c>
+      <c r="G16">
+        <v>-31.598578947368399</v>
+      </c>
+      <c r="H16">
+        <v>0.56859645526315805</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.27104949421052632</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.14474605263160001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0.6290454977631581</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.70008391377056467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15.07635</v>
+      </c>
+      <c r="C17">
+        <v>3.4961525</v>
+      </c>
+      <c r="D17">
+        <v>25.270199999999999</v>
+      </c>
+      <c r="F17">
+        <v>15.1850526315789</v>
+      </c>
+      <c r="G17">
+        <v>5.61940868421053</v>
+      </c>
+      <c r="H17">
+        <v>24.948855263157899</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.10870263157890037</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>2.12325618421053</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>-0.32134473684210008</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2.1501849980400656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-15.759</v>
+      </c>
+      <c r="C18">
+        <v>3.7566925000000002</v>
+      </c>
+      <c r="D18">
+        <v>25.257650000000002</v>
+      </c>
+      <c r="F18">
+        <v>-15.798434210526301</v>
+      </c>
+      <c r="G18">
+        <v>5.4703834210526301</v>
+      </c>
+      <c r="H18">
+        <v>25.090547368421099</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-3.9434210526300362E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.7136909210526299</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>-0.16710263157890282</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1.7222702805711529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>19.223849999999999</v>
+      </c>
+      <c r="C19">
+        <v>-23.920349999999999</v>
+      </c>
+      <c r="D19">
+        <v>27.328624999999999</v>
+      </c>
+      <c r="F19">
+        <v>18.723128947368401</v>
+      </c>
+      <c r="G19">
+        <v>-22.062621052631599</v>
+      </c>
+      <c r="H19">
+        <v>28.033339473684201</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-0.50072105263159727</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.8577289473684004</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.70471447368420215</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2.0490243785418958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-19.209800000000001</v>
+      </c>
+      <c r="C20">
+        <v>-24.021725</v>
+      </c>
+      <c r="D20">
+        <v>27.345549999999999</v>
+      </c>
+      <c r="F20">
+        <v>-18.4848157894737</v>
+      </c>
+      <c r="G20">
+        <v>-22.242673684210502</v>
+      </c>
+      <c r="H20">
+        <v>28.174515789473698</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.72498421052630135</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>1.7790513157894985</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.82896578947369903</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>2.0923216697827662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.12143085000000001</v>
+      </c>
+      <c r="C21">
+        <v>33.465874999999997</v>
+      </c>
+      <c r="D21">
+        <v>3.6271450000000001</v>
+      </c>
+      <c r="F21">
+        <v>-0.111086676315789</v>
+      </c>
+      <c r="G21">
+        <v>33.361523684210503</v>
+      </c>
+      <c r="H21">
+        <v>2.1235552315789499</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.0344173684211005E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>-0.10435131578949353</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>-1.5035897684210502</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>1.5072419814803046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-0.12636810000000001</v>
+      </c>
+      <c r="C22">
+        <v>-37.609850000000002</v>
+      </c>
+      <c r="D22">
+        <v>6.4428599999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.11684006500000001</v>
+      </c>
+      <c r="G22">
+        <v>-37.6019447368421</v>
+      </c>
+      <c r="H22">
+        <v>6.4965089473684197</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.24320816500000003</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>7.9052631579017429E-3</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>5.3648947368420075E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.24918048531536818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>33.722724999999997</v>
+      </c>
+      <c r="C23">
+        <v>-4.5950875</v>
+      </c>
+      <c r="D23">
+        <v>-27.6478</v>
+      </c>
+      <c r="F23">
+        <v>34.003492105263199</v>
+      </c>
+      <c r="G23">
+        <v>-4.0569050000000004</v>
+      </c>
+      <c r="H23">
+        <v>-27.3505</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.2807671052632017</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.53818249999999956</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.2972999999999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.67591261321573759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-33.521549999999998</v>
+      </c>
+      <c r="C24">
+        <v>-6.6056350000000004</v>
+      </c>
+      <c r="D24">
+        <v>-26.201550000000001</v>
+      </c>
+      <c r="F24">
+        <v>-34.832776315789502</v>
+      </c>
+      <c r="G24">
+        <v>-6.6465750000000003</v>
+      </c>
+      <c r="H24">
+        <v>-25.3468578947368</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-1.3112263157895043</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>-4.0939999999999976E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.85469210526320083</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1.5657231969981664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>17.690525000000001</v>
+      </c>
+      <c r="C25">
+        <v>-10.671725</v>
+      </c>
+      <c r="D25">
+        <v>-18.390049999999999</v>
+      </c>
+      <c r="F25">
+        <v>17.4263131578947</v>
+      </c>
+      <c r="G25">
+        <v>-10.052404736842099</v>
+      </c>
+      <c r="H25">
+        <v>-18.2650921052632</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>-0.26421184210530058</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.6193202631579009</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.12495789473679864</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.68482111629512477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-18.676500000000001</v>
+      </c>
+      <c r="C26">
+        <v>-11.092325000000001</v>
+      </c>
+      <c r="D26">
+        <v>-18.803100000000001</v>
+      </c>
+      <c r="F26">
+        <v>-18.1468184210526</v>
+      </c>
+      <c r="G26">
+        <v>-10.9803721052632</v>
+      </c>
+      <c r="H26">
+        <v>-18.375013157894699</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.52968157894740031</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.1119528947368007</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.42808684210530146</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>0.69018430154549981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>20.5014</v>
+      </c>
+      <c r="C27">
+        <v>-5.0968675000000001</v>
+      </c>
+      <c r="D27">
+        <v>-28.047499999999999</v>
+      </c>
+      <c r="F27">
+        <v>20.464144736842101</v>
+      </c>
+      <c r="G27">
+        <v>-4.0347992105263204</v>
+      </c>
+      <c r="H27">
+        <v>-28.021497368421102</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>-3.7255263157899066E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1.0620682894736797</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>2.6002631578897706E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>1.0630395773382757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-21.5</v>
+      </c>
+      <c r="C28">
+        <v>-5.7214549999999997</v>
+      </c>
+      <c r="D28">
+        <v>-28.385750000000002</v>
+      </c>
+      <c r="F28">
+        <v>-21.3443842105263</v>
+      </c>
+      <c r="G28">
+        <v>-5.1246097368421104</v>
+      </c>
+      <c r="H28">
+        <v>-27.991205263157902</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.15561578947369981</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.59684526315788933</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.39454473684210001</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0.73219266006791883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>14.450799999999999</v>
+      </c>
+      <c r="C29">
+        <v>-40.522725000000001</v>
+      </c>
+      <c r="D29">
+        <v>3.7521624999999998</v>
+      </c>
+      <c r="F29">
+        <v>14.6365184210526</v>
+      </c>
+      <c r="G29">
+        <v>-40.717413157894697</v>
+      </c>
+      <c r="H29">
+        <v>4.7100497368421097</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.18571842105260039</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>-0.19468815789469573</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.95788723684210986</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0.99495867715584707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-13.956899999999999</v>
+      </c>
+      <c r="C30">
+        <v>-42.986375000000002</v>
+      </c>
+      <c r="D30">
+        <v>4.1138599999999999</v>
+      </c>
+      <c r="F30">
+        <v>-14.8907842105263</v>
+      </c>
+      <c r="G30">
+        <v>-43.090160526315799</v>
+      </c>
+      <c r="H30">
+        <v>4.2349192105263196</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>-0.93388421052630122</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>-0.10378552631579652</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.12105921052631974</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0.94739985570836749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>23.524075</v>
+      </c>
+      <c r="C31">
+        <v>-73.952100000000002</v>
+      </c>
+      <c r="D31">
+        <v>3.3244375000000002</v>
+      </c>
+      <c r="F31">
+        <v>20.5600675675676</v>
+      </c>
+      <c r="G31">
+        <v>-79.877489189189205</v>
+      </c>
+      <c r="H31">
+        <v>4.6028610810810804</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>-2.9640074324323997</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-5.9253891891892039</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>1.2784235810810802</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>6.7475880102106833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-21.893574999999998</v>
+      </c>
+      <c r="C32">
+        <v>-77.058274999999995</v>
+      </c>
+      <c r="D32">
+        <v>2.378355</v>
+      </c>
+      <c r="F32">
+        <v>-18.908505263157899</v>
+      </c>
+      <c r="G32">
+        <v>-82.829549999999998</v>
+      </c>
+      <c r="H32">
+        <v>3.54751710526316</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>2.9850697368420995</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>-5.7712750000000028</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>1.16916210526316</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>6.601908548883344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>11.74715</v>
+      </c>
+      <c r="C33">
+        <v>18.530925</v>
+      </c>
+      <c r="D33">
+        <v>-12.77375</v>
+      </c>
+      <c r="F33">
+        <v>11.8931421052632</v>
+      </c>
+      <c r="G33">
+        <v>18.510231578947401</v>
+      </c>
+      <c r="H33">
+        <v>-12.377321052631601</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.1459921052632005</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>-2.0693421052598637E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.39642894736839906</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0.42296314589531137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-13.027150000000001</v>
+      </c>
+      <c r="C34">
+        <v>17.388625000000001</v>
+      </c>
+      <c r="D34">
+        <v>-12.9869</v>
+      </c>
+      <c r="F34">
+        <v>-13.3650815789474</v>
+      </c>
+      <c r="G34">
+        <v>17.029497368421101</v>
+      </c>
+      <c r="H34">
+        <v>-13.0638105263158</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>-0.33793157894739956</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>-0.35912763157890026</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>-7.6910526315799643E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0.49908479927916677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE55FB9F-220B-4EA0-AA23-53683BDF5123}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.78486017540908</v>
+      </c>
+      <c r="C2">
+        <v>0.80480363827095003</v>
+      </c>
+      <c r="D2">
+        <v>0.83689502036837804</v>
+      </c>
+      <c r="E2">
+        <v>1.208022780014</v>
+      </c>
+      <c r="F2">
+        <v>0.87245048690496096</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>1.1014064201934737</v>
+      </c>
+      <c r="H2">
+        <v>1.0545756470888199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.9610522800841199</v>
+      </c>
+      <c r="C3">
+        <v>2.1559429562824</v>
+      </c>
+      <c r="D3">
+        <v>2.0096177497046601</v>
+      </c>
+      <c r="E3">
+        <v>2.0097379846867498</v>
+      </c>
+      <c r="F3">
+        <v>2.0524180039959901</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G33" si="0">AVERAGE(B3:F3)</f>
+        <v>2.0377537949507838</v>
+      </c>
+      <c r="H3">
+        <v>1.2644726158938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.82006288751891</v>
+      </c>
+      <c r="C4">
+        <v>1.6100697767788501</v>
+      </c>
+      <c r="D4">
+        <v>2.09739028674817</v>
+      </c>
+      <c r="E4">
+        <v>2.6337594070980201</v>
+      </c>
+      <c r="F4">
+        <v>1.36514490061639</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.105285451752068</v>
+      </c>
+      <c r="H4">
+        <v>1.5493784975548399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.0928817134730799</v>
+      </c>
+      <c r="C5">
+        <v>3.5696054093707801</v>
+      </c>
+      <c r="D5">
+        <v>2.8198163780585999</v>
+      </c>
+      <c r="E5">
+        <v>2.2590931033000099</v>
+      </c>
+      <c r="F5">
+        <v>2.38501152371256</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.8252816255830062</v>
+      </c>
+      <c r="H5">
+        <v>1.35035883880706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.9470607042468999</v>
+      </c>
+      <c r="C6">
+        <v>2.4736805811335998</v>
+      </c>
+      <c r="D6">
+        <v>1.6703402259037099</v>
+      </c>
+      <c r="E6">
+        <v>1.9322172068694401</v>
+      </c>
+      <c r="F6">
+        <v>2.4314765970629701</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.0909550630433236</v>
+      </c>
+      <c r="H6">
+        <v>1.14328648932295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3.8542593421858702</v>
+      </c>
+      <c r="C7">
+        <v>2.89092042162968</v>
+      </c>
+      <c r="D7">
+        <v>2.9502180762336301</v>
+      </c>
+      <c r="E7">
+        <v>2.7109416446082499</v>
+      </c>
+      <c r="F7">
+        <v>3.0725042316795101</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.0957687432673877</v>
+      </c>
+      <c r="H7">
+        <v>1.5203069567115599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.1452605998493404</v>
+      </c>
+      <c r="C8">
+        <v>2.7358141564691998</v>
+      </c>
+      <c r="D8">
+        <v>3.0979688933104299</v>
+      </c>
+      <c r="E8">
+        <v>3.0281033527319701</v>
+      </c>
+      <c r="F8">
+        <v>3.1238187705385601</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3.2261931545799003</v>
+      </c>
+      <c r="H8">
+        <v>1.74614022912149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.5555312684255802</v>
+      </c>
+      <c r="C9">
+        <v>2.29922526099825</v>
+      </c>
+      <c r="D9">
+        <v>3.4004030957965399</v>
+      </c>
+      <c r="E9">
+        <v>2.7497145625986801</v>
+      </c>
+      <c r="F9">
+        <v>2.34492708789496</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.8699602551428023</v>
+      </c>
+      <c r="H9">
+        <v>1.66695149547249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3.8923288322851302</v>
+      </c>
+      <c r="C10">
+        <v>2.5712216238752101</v>
+      </c>
+      <c r="D10">
+        <v>3.7175992265697499</v>
+      </c>
+      <c r="E10">
+        <v>2.31608123932152</v>
+      </c>
+      <c r="F10">
+        <v>2.5301891591645198</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.0054840162432259</v>
+      </c>
+      <c r="H10">
+        <v>1.81595048530706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.1239216644161001</v>
+      </c>
+      <c r="C11">
+        <v>4.2460893593343298</v>
+      </c>
+      <c r="D11">
+        <v>4.5094762478633497</v>
+      </c>
+      <c r="E11">
+        <v>3.3769044107591601</v>
+      </c>
+      <c r="F11">
+        <v>5.06599447760453</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>4.2644772319954942</v>
+      </c>
+      <c r="H11">
+        <v>1.99130225128418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.8839188871175401</v>
+      </c>
+      <c r="C12">
+        <v>2.0959568776484399</v>
+      </c>
+      <c r="D12">
+        <v>2.1249824511533202</v>
+      </c>
+      <c r="E12">
+        <v>1.70775349761882</v>
+      </c>
+      <c r="F12">
+        <v>2.3375649811395398</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2.0300353389355323</v>
+      </c>
+      <c r="H12">
+        <v>1.0788543447296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.79795405652894</v>
+      </c>
+      <c r="C13">
+        <v>2.35393989702454</v>
+      </c>
+      <c r="D13">
+        <v>2.0218708624509101</v>
+      </c>
+      <c r="E13">
+        <v>1.6029045161250299</v>
+      </c>
+      <c r="F13">
+        <v>2.2969472211245798</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.0147233106507998</v>
+      </c>
+      <c r="H13">
+        <v>1.0373284908842999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.82050284843821</v>
+      </c>
+      <c r="C14">
+        <v>2.5070576078933602</v>
+      </c>
+      <c r="D14">
+        <v>2.1720234675527599</v>
+      </c>
+      <c r="E14">
+        <v>1.7092515832966499</v>
+      </c>
+      <c r="F14">
+        <v>2.34775733216477</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.1113185678691502</v>
+      </c>
+      <c r="H14">
+        <v>1.1138685141172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.8247402703765299</v>
+      </c>
+      <c r="C15">
+        <v>3.6721295886615302</v>
+      </c>
+      <c r="D15">
+        <v>3.4994863684481499</v>
+      </c>
+      <c r="E15">
+        <v>2.7013354249416901</v>
+      </c>
+      <c r="F15">
+        <v>3.33676031252122</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.406890392989824</v>
+      </c>
+      <c r="H15">
+        <v>1.7544452845530301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6.7470458375818998</v>
+      </c>
+      <c r="C16">
+        <v>2.4983612040166299</v>
+      </c>
+      <c r="D16">
+        <v>2.4945401238555398</v>
+      </c>
+      <c r="E16">
+        <v>2.67747561756509</v>
+      </c>
+      <c r="F16">
+        <v>2.3193612441749298</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3.3473568054388183</v>
+      </c>
+      <c r="H16">
+        <v>3.2938886633022699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6.6290864937861</v>
+      </c>
+      <c r="C17">
+        <v>2.17061392646078</v>
+      </c>
+      <c r="D17">
+        <v>2.2982210262791098</v>
+      </c>
+      <c r="E17">
+        <v>2.6148505538459701</v>
+      </c>
+      <c r="F17">
+        <v>2.2470406168733499</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3.1919625234490625</v>
+      </c>
+      <c r="H17">
+        <v>3.48062829524374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.9832476186124901</v>
+      </c>
+      <c r="C18">
+        <v>2.8650957736902498</v>
+      </c>
+      <c r="D18">
+        <v>2.9264073230000198</v>
+      </c>
+      <c r="E18">
+        <v>3.0106700630624799</v>
+      </c>
+      <c r="F18">
+        <v>3.23196308378362</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3.2034767724297715</v>
+      </c>
+      <c r="H18">
+        <v>2.4649685796854701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3.3264832384933798</v>
+      </c>
+      <c r="C19">
+        <v>2.6809462305538601</v>
+      </c>
+      <c r="D19">
+        <v>2.8992201282721699</v>
+      </c>
+      <c r="E19">
+        <v>2.8689095465812899</v>
+      </c>
+      <c r="F19">
+        <v>2.9862818124964199</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.9523681912794242</v>
+      </c>
+      <c r="H19">
+        <v>2.0829686784909498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2.75704110784954</v>
+      </c>
+      <c r="C20">
+        <v>2.6710445350954601</v>
+      </c>
+      <c r="D20">
+        <v>2.3918748562115</v>
+      </c>
+      <c r="E20">
+        <v>2.4696116099780201</v>
+      </c>
+      <c r="F20">
+        <v>2.3957505606164702</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.5370645339501978</v>
+      </c>
+      <c r="H20">
+        <v>1.36100957735988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3.6842646762848199</v>
+      </c>
+      <c r="C21">
+        <v>3.2891534279840702</v>
+      </c>
+      <c r="D21">
+        <v>2.6846258398845002</v>
+      </c>
+      <c r="E21">
+        <v>4.1572253680875599</v>
+      </c>
+      <c r="F21">
+        <v>3.1411530873683802</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3.391284479921866</v>
+      </c>
+      <c r="H21">
+        <v>1.14268601929381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3.4376094969164601</v>
+      </c>
+      <c r="C22">
+        <v>2.3455670050798201</v>
+      </c>
+      <c r="D22">
+        <v>2.6268572504845702</v>
+      </c>
+      <c r="E22">
+        <v>2.31001487738077</v>
+      </c>
+      <c r="F22">
+        <v>2.3069440306106701</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2.6053985320944575</v>
+      </c>
+      <c r="H22">
+        <v>1.7344561114160399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3.9347410623159398</v>
+      </c>
+      <c r="C23">
+        <v>2.8980178902865501</v>
+      </c>
+      <c r="D23">
+        <v>2.80656243323401</v>
+      </c>
+      <c r="E23">
+        <v>3.6155676157663099</v>
+      </c>
+      <c r="F23">
+        <v>2.8838213338172598</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>3.2277420670840136</v>
+      </c>
+      <c r="H23">
+        <v>2.3629380897714301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5.0707915685701499</v>
+      </c>
+      <c r="C24">
+        <v>5.94654380430097</v>
+      </c>
+      <c r="D24">
+        <v>5.6232532537062898</v>
+      </c>
+      <c r="E24">
+        <v>4.2589561316789402</v>
+      </c>
+      <c r="F24">
+        <v>3.7456913517371002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>4.9290472219986903</v>
+      </c>
+      <c r="H24">
+        <v>3.4698611960608901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5.2078639892482004</v>
+      </c>
+      <c r="C25">
+        <v>5.9083466572263301</v>
+      </c>
+      <c r="D25">
+        <v>5.7914442713119803</v>
+      </c>
+      <c r="E25">
+        <v>4.4858001105542398</v>
+      </c>
+      <c r="F25">
+        <v>4.4320911625225996</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>5.1651092381726702</v>
+      </c>
+      <c r="H25">
+        <v>2.23732809069051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5.12454057017335</v>
+      </c>
+      <c r="C26">
+        <v>4.8552483606402399</v>
+      </c>
+      <c r="D26">
+        <v>4.7431986916207798</v>
+      </c>
+      <c r="E26">
+        <v>3.7832962481091199</v>
+      </c>
+      <c r="F26">
+        <v>3.4764213487531102</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>4.3965410438593207</v>
+      </c>
+      <c r="H26">
+        <v>2.69548725642376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5.9137763747831</v>
+      </c>
+      <c r="C27">
+        <v>5.5505927500307699</v>
+      </c>
+      <c r="D27">
+        <v>5.3080915455741398</v>
+      </c>
+      <c r="E27">
+        <v>3.4665543845086302</v>
+      </c>
+      <c r="F27">
+        <v>3.70336527042085</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>4.7884760650634979</v>
+      </c>
+      <c r="H27">
+        <v>3.2672332340119601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3.47065843251091</v>
+      </c>
+      <c r="C28">
+        <v>3.1388346857961098</v>
+      </c>
+      <c r="D28">
+        <v>3.7947675496617501</v>
+      </c>
+      <c r="E28">
+        <v>4.0848047842796502</v>
+      </c>
+      <c r="F28">
+        <v>2.9635618119455298</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>3.4905254528387899</v>
+      </c>
+      <c r="H28">
+        <v>1.8869085069851099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4.1011521019278199</v>
+      </c>
+      <c r="C29">
+        <v>4.6452501715453298</v>
+      </c>
+      <c r="D29">
+        <v>4.3175487534825097</v>
+      </c>
+      <c r="E29">
+        <v>4.2876615097480597</v>
+      </c>
+      <c r="F29">
+        <v>3.67366227201342</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>4.2050549617434276</v>
+      </c>
+      <c r="H29">
+        <v>1.80908943619927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6.7964050299660901</v>
+      </c>
+      <c r="C30">
+        <v>6.0184144548066696</v>
+      </c>
+      <c r="D30">
+        <v>6.7119025356693696</v>
+      </c>
+      <c r="E30">
+        <v>6.7995700121117499</v>
+      </c>
+      <c r="F30">
+        <v>7.3563372774453901</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>6.736525861999854</v>
+      </c>
+      <c r="H30">
+        <v>2.9456997705349202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7.17390718785225</v>
+      </c>
+      <c r="C31">
+        <v>6.7238484030253902</v>
+      </c>
+      <c r="D31">
+        <v>7.7698452579760398</v>
+      </c>
+      <c r="E31">
+        <v>7.2998401952804102</v>
+      </c>
+      <c r="F31">
+        <v>7.6807041964515603</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>7.3296290481171296</v>
+      </c>
+      <c r="H31">
+        <v>3.3691794399358002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4.8619588276150401</v>
+      </c>
+      <c r="C32">
+        <v>1.80645111727275</v>
+      </c>
+      <c r="D32">
+        <v>2.1482469286030601</v>
+      </c>
+      <c r="E32">
+        <v>1.9492018651459</v>
+      </c>
+      <c r="F32">
+        <v>2.3333364901360198</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>2.6198390457545537</v>
+      </c>
+      <c r="H32">
+        <v>1.9249835648595199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4.5802109830582598</v>
+      </c>
+      <c r="C33">
+        <v>1.9996289746312399</v>
+      </c>
+      <c r="D33">
+        <v>1.97710376966057</v>
+      </c>
+      <c r="E33">
+        <v>2.2057816725811801</v>
+      </c>
+      <c r="F33">
+        <v>2.1447673479696299</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>2.5814985495801759</v>
+      </c>
+      <c r="H33">
+        <v>1.8460526015158001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B2:B33)</f>
+        <v>3.9782850039969104</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:H34" si="1">AVERAGE(C2:C33)</f>
+        <v>3.2499505164941982</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>3.3200562465203212</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>3.0716129025073546</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>3.0807881057894173</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>3.3401385550616407</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.9832058516446722</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>